--- a/biology/Botanique/Pappophorum/Pappophorum.xlsx
+++ b/biology/Botanique/Pappophorum/Pappophorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pappophorum est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, originaire d'Amérique, qui comprend sept espèces acceptées[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pappophorum est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, originaire d'Amérique, qui comprend sept espèces acceptées.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Pappohorum  » dérive de deux racines grecques, πάππος, pappos (pappus) et φορός, phoros (porter), en référence aux lemmes qui portent des arêtes formant au sommet des épillets une couronne en forme de pappus[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Pappohorum  » dérive de deux racines grecques, πάππος, pappos (pappus) et φορός, phoros (porter), en référence aux lemmes qui portent des arêtes formant au sommet des épillets une couronne en forme de pappus. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (29 mars 2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (29 mars 2017) :
 Pappophorum bicolor E.Fourn. (1886)
 Pappophorum caespitosum R.E.Fr., Nova Acta Regiae Soc. Sci. Upsal., ser. 4 (1905)
 Pappophorum hassleri Hack., Bull. Herb. Boissier, sér. 2 (1904)
